--- a/data/pca/factorExposure/factorExposure_2009-08-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01734591846590618</v>
+        <v>0.01730236782613805</v>
       </c>
       <c r="C2">
-        <v>-0.001722936160564514</v>
+        <v>0.0009838390457760971</v>
       </c>
       <c r="D2">
-        <v>-0.005822061071521124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009361423634656545</v>
+      </c>
+      <c r="E2">
+        <v>0.001824852727741117</v>
+      </c>
+      <c r="F2">
+        <v>0.01435264859582158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09383902871483148</v>
+        <v>0.09289965974178901</v>
       </c>
       <c r="C4">
-        <v>-0.02082201044903927</v>
+        <v>0.01456480399677414</v>
       </c>
       <c r="D4">
-        <v>-0.06865265670707875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08383370745301674</v>
+      </c>
+      <c r="E4">
+        <v>0.02856939103702604</v>
+      </c>
+      <c r="F4">
+        <v>-0.03251240261359849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1500148352323307</v>
+        <v>0.1603797751759613</v>
       </c>
       <c r="C6">
-        <v>-0.02800680527725504</v>
+        <v>0.02744395612107738</v>
       </c>
       <c r="D6">
-        <v>0.0282392402650418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0255889988862551</v>
+      </c>
+      <c r="E6">
+        <v>0.00821912142107584</v>
+      </c>
+      <c r="F6">
+        <v>-0.04092605352244177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06200329342531374</v>
+        <v>0.06305338121021928</v>
       </c>
       <c r="C7">
-        <v>-0.002789828029459596</v>
+        <v>-0.001668235669498354</v>
       </c>
       <c r="D7">
-        <v>-0.04275255499400234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05259781910718977</v>
+      </c>
+      <c r="E7">
+        <v>0.01248577769760072</v>
+      </c>
+      <c r="F7">
+        <v>-0.04730818289001121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06321551021048341</v>
+        <v>0.05816299002829021</v>
       </c>
       <c r="C8">
-        <v>0.01063728977807744</v>
+        <v>-0.01304051895279741</v>
       </c>
       <c r="D8">
-        <v>-0.02512757147718187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0316143650246787</v>
+      </c>
+      <c r="E8">
+        <v>0.01770120760198124</v>
+      </c>
+      <c r="F8">
+        <v>0.02538936839970248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07228345234733227</v>
+        <v>0.07072598329062979</v>
       </c>
       <c r="C9">
-        <v>-0.01708652097775199</v>
+        <v>0.01020978802948003</v>
       </c>
       <c r="D9">
-        <v>-0.06963671750384044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08679618083881194</v>
+      </c>
+      <c r="E9">
+        <v>0.02418599583097478</v>
+      </c>
+      <c r="F9">
+        <v>-0.04713371298973962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08472121793330414</v>
+        <v>0.0896006855844334</v>
       </c>
       <c r="C10">
-        <v>-0.0131800911379363</v>
+        <v>0.02090138030139846</v>
       </c>
       <c r="D10">
-        <v>0.1660497228237862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1608255605847001</v>
+      </c>
+      <c r="E10">
+        <v>-0.03150395008103352</v>
+      </c>
+      <c r="F10">
+        <v>0.05749397835161715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09168732121947788</v>
+        <v>0.08703835001548771</v>
       </c>
       <c r="C11">
-        <v>-0.01790581738154899</v>
+        <v>0.01061411501552325</v>
       </c>
       <c r="D11">
-        <v>-0.09998418564750457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175682383341344</v>
+      </c>
+      <c r="E11">
+        <v>0.0462659839651637</v>
+      </c>
+      <c r="F11">
+        <v>-0.02181604262310111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09729184926402955</v>
+        <v>0.09021449223748415</v>
       </c>
       <c r="C12">
-        <v>-0.01573460546195092</v>
+        <v>0.007905561899862298</v>
       </c>
       <c r="D12">
-        <v>-0.1036959238097806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319472735169431</v>
+      </c>
+      <c r="E12">
+        <v>0.04533429196299857</v>
+      </c>
+      <c r="F12">
+        <v>-0.03121129892082306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04416650067406373</v>
+        <v>0.0424396743469402</v>
       </c>
       <c r="C13">
-        <v>-0.005874934483540335</v>
+        <v>0.002570737671172871</v>
       </c>
       <c r="D13">
-        <v>-0.0307555711617446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0530995608707874</v>
+      </c>
+      <c r="E13">
+        <v>-0.00365352741413119</v>
+      </c>
+      <c r="F13">
+        <v>-0.001357071905803116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01942157868794919</v>
+        <v>0.02363698456076457</v>
       </c>
       <c r="C14">
-        <v>-0.01514393722092369</v>
+        <v>0.01373917154557743</v>
       </c>
       <c r="D14">
-        <v>-0.02557687098502329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03297608498184291</v>
+      </c>
+      <c r="E14">
+        <v>0.01819336405797518</v>
+      </c>
+      <c r="F14">
+        <v>-0.01221388416439536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03447163271247308</v>
+        <v>0.03310566704380854</v>
       </c>
       <c r="C15">
-        <v>-0.007794359514165313</v>
+        <v>0.004811617226033482</v>
       </c>
       <c r="D15">
-        <v>-0.03375736206089679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04607707937317784</v>
+      </c>
+      <c r="E15">
+        <v>0.007280713265772005</v>
+      </c>
+      <c r="F15">
+        <v>-0.02678812146182696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07684043722935539</v>
+        <v>0.07263139518897845</v>
       </c>
       <c r="C16">
-        <v>-0.008629372338072349</v>
+        <v>0.001113925108606644</v>
       </c>
       <c r="D16">
-        <v>-0.1016326452768099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284747348102797</v>
+      </c>
+      <c r="E16">
+        <v>0.06060370130642492</v>
+      </c>
+      <c r="F16">
+        <v>-0.02635826050773415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0005063853342981929</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000219211471688435</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001309463035360698</v>
+      </c>
+      <c r="E17">
+        <v>0.00109367424553883</v>
+      </c>
+      <c r="F17">
+        <v>0.002477182571866389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01793234876321512</v>
+        <v>0.03822361480749523</v>
       </c>
       <c r="C18">
-        <v>0.003176682877393614</v>
+        <v>-0.002892838173644367</v>
       </c>
       <c r="D18">
-        <v>-0.02827653742194655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01543844762668109</v>
+      </c>
+      <c r="E18">
+        <v>-0.007933014757764907</v>
+      </c>
+      <c r="F18">
+        <v>0.008782058127987892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06589093809183437</v>
+        <v>0.06246959094343352</v>
       </c>
       <c r="C20">
-        <v>-0.006761374045743692</v>
+        <v>0.0005016632127865619</v>
       </c>
       <c r="D20">
-        <v>-0.05454560046506165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07854619595919408</v>
+      </c>
+      <c r="E20">
+        <v>0.0565185130778794</v>
+      </c>
+      <c r="F20">
+        <v>-0.02967932809734228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04000326935131032</v>
+        <v>0.04112325019060931</v>
       </c>
       <c r="C21">
-        <v>-0.009922938110925907</v>
+        <v>0.006392580758506064</v>
       </c>
       <c r="D21">
-        <v>-0.03203565651396331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03834860615529099</v>
+      </c>
+      <c r="E21">
+        <v>-0.001176098827579599</v>
+      </c>
+      <c r="F21">
+        <v>0.02313509418283113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04209346759239143</v>
+        <v>0.04448348488205763</v>
       </c>
       <c r="C22">
-        <v>-0.001452553749531065</v>
+        <v>0.00123619012964161</v>
       </c>
       <c r="D22">
-        <v>0.003382908421385545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007450952976523901</v>
+      </c>
+      <c r="E22">
+        <v>0.03934324311831828</v>
+      </c>
+      <c r="F22">
+        <v>0.03764172163113395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04205668836226376</v>
+        <v>0.04445950387493364</v>
       </c>
       <c r="C23">
-        <v>-0.001442547064989685</v>
+        <v>0.001227565270898467</v>
       </c>
       <c r="D23">
-        <v>0.003361236704511771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007465969182862522</v>
+      </c>
+      <c r="E23">
+        <v>0.03952635428198686</v>
+      </c>
+      <c r="F23">
+        <v>0.0376032474260249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08329119615838644</v>
+        <v>0.07877687566216365</v>
       </c>
       <c r="C24">
-        <v>-0.008873442717835946</v>
+        <v>0.001824256510691576</v>
       </c>
       <c r="D24">
-        <v>-0.1063539091027548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205500100651024</v>
+      </c>
+      <c r="E24">
+        <v>0.04848956461865356</v>
+      </c>
+      <c r="F24">
+        <v>-0.02896343931868835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08838695718922036</v>
+        <v>0.08373514880311647</v>
       </c>
       <c r="C25">
-        <v>-0.01142582025281698</v>
+        <v>0.004418376142433927</v>
       </c>
       <c r="D25">
-        <v>-0.09214662872505126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098720382460664</v>
+      </c>
+      <c r="E25">
+        <v>0.0318124294605366</v>
+      </c>
+      <c r="F25">
+        <v>-0.02569197889715623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05912857557531639</v>
+        <v>0.05913078688295797</v>
       </c>
       <c r="C26">
-        <v>-0.01801647318117825</v>
+        <v>0.01455003065056682</v>
       </c>
       <c r="D26">
-        <v>-0.01919488427322081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04267770189046733</v>
+      </c>
+      <c r="E26">
+        <v>0.02971229654629332</v>
+      </c>
+      <c r="F26">
+        <v>0.006829795821335013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1325378486375516</v>
+        <v>0.1427172103745661</v>
       </c>
       <c r="C28">
-        <v>-0.01180262197638759</v>
+        <v>0.02228241598924298</v>
       </c>
       <c r="D28">
-        <v>0.27260948977017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2606330804047605</v>
+      </c>
+      <c r="E28">
+        <v>-0.06819154591592466</v>
+      </c>
+      <c r="F28">
+        <v>-0.003680489413636341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.025698377638549</v>
+        <v>0.02856730329586146</v>
       </c>
       <c r="C29">
-        <v>-0.009799101995883592</v>
+        <v>0.008781492244553362</v>
       </c>
       <c r="D29">
-        <v>-0.02362613026228314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03081384871353295</v>
+      </c>
+      <c r="E29">
+        <v>0.01313690520306577</v>
+      </c>
+      <c r="F29">
+        <v>0.01390235043756102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06431745236116233</v>
+        <v>0.05868763314302219</v>
       </c>
       <c r="C30">
-        <v>-0.01024257068195881</v>
+        <v>0.00266168921403871</v>
       </c>
       <c r="D30">
-        <v>-0.06381413318126547</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08751429311599396</v>
+      </c>
+      <c r="E30">
+        <v>0.01338305586216215</v>
+      </c>
+      <c r="F30">
+        <v>-0.07924695086220088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05118133565804669</v>
+        <v>0.05109040817023173</v>
       </c>
       <c r="C31">
-        <v>-0.01720558764698312</v>
+        <v>0.0158806530943324</v>
       </c>
       <c r="D31">
-        <v>-0.02042014330344088</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02481345769535647</v>
+      </c>
+      <c r="E31">
+        <v>0.02904609440052154</v>
+      </c>
+      <c r="F31">
+        <v>0.001811958176842208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04721675329021802</v>
+        <v>0.05100703763102594</v>
       </c>
       <c r="C32">
-        <v>-0.002138205213565403</v>
+        <v>-0.00171663751824855</v>
       </c>
       <c r="D32">
-        <v>-0.02052791650237486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03518288819938947</v>
+      </c>
+      <c r="E32">
+        <v>0.03376622939777547</v>
+      </c>
+      <c r="F32">
+        <v>-0.001201026098610883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09200644225300458</v>
+        <v>0.088912739183735</v>
       </c>
       <c r="C33">
-        <v>-0.01409160385753024</v>
+        <v>0.006528933653176871</v>
       </c>
       <c r="D33">
-        <v>-0.08024727317995636</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1027345343514808</v>
+      </c>
+      <c r="E33">
+        <v>0.04591107653421798</v>
+      </c>
+      <c r="F33">
+        <v>-0.0394336486831484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07017149154061479</v>
+        <v>0.06746328478877787</v>
       </c>
       <c r="C34">
-        <v>-0.01616006759034893</v>
+        <v>0.0100443372069432</v>
       </c>
       <c r="D34">
-        <v>-0.08709864497174676</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093215144793778</v>
+      </c>
+      <c r="E34">
+        <v>0.03479509593437945</v>
+      </c>
+      <c r="F34">
+        <v>-0.03228955343009636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02397253102302093</v>
+        <v>0.02606487948130858</v>
       </c>
       <c r="C35">
-        <v>-0.002942970315459322</v>
+        <v>0.002747125228306388</v>
       </c>
       <c r="D35">
-        <v>-0.006932826568947254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01186054376104759</v>
+      </c>
+      <c r="E35">
+        <v>0.01247263777588154</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003168809998581438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02613466664485707</v>
+        <v>0.02742540786534723</v>
       </c>
       <c r="C36">
-        <v>-0.007840938967794862</v>
+        <v>0.006809701595411609</v>
       </c>
       <c r="D36">
-        <v>-0.03866922437284606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03913351524205553</v>
+      </c>
+      <c r="E36">
+        <v>0.0163230677855368</v>
+      </c>
+      <c r="F36">
+        <v>-0.01476961577210006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002685506034188438</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005674713375459294</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001892781950886067</v>
+      </c>
+      <c r="E37">
+        <v>-0.0006795533208660634</v>
+      </c>
+      <c r="F37">
+        <v>0.002176043575329403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1149540575574451</v>
+        <v>0.1029164761302827</v>
       </c>
       <c r="C39">
-        <v>-0.02463504395175621</v>
+        <v>0.01577879580393439</v>
       </c>
       <c r="D39">
-        <v>-0.1405358923332151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1523114800715628</v>
+      </c>
+      <c r="E39">
+        <v>0.05807360558621784</v>
+      </c>
+      <c r="F39">
+        <v>-0.02885786768087274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03844673787314262</v>
+        <v>0.0430224292828969</v>
       </c>
       <c r="C40">
-        <v>-0.009364737035055814</v>
+        <v>0.007520097161519773</v>
       </c>
       <c r="D40">
-        <v>-0.01630333891022065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03177416988374798</v>
+      </c>
+      <c r="E40">
+        <v>0.002713521830505772</v>
+      </c>
+      <c r="F40">
+        <v>0.01872253853724089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02514684721496318</v>
+        <v>0.02776997845195243</v>
       </c>
       <c r="C41">
-        <v>-0.007139296187979267</v>
+        <v>0.006861496104736547</v>
       </c>
       <c r="D41">
-        <v>-0.009564234273374689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01029137335611543</v>
+      </c>
+      <c r="E41">
+        <v>0.01168915840947176</v>
+      </c>
+      <c r="F41">
+        <v>0.005919603600836467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04243146168979618</v>
+        <v>0.04079293785072814</v>
       </c>
       <c r="C43">
-        <v>-0.008328480991664531</v>
+        <v>0.007288801615151029</v>
       </c>
       <c r="D43">
-        <v>-0.01435485527752501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01941629808239871</v>
+      </c>
+      <c r="E43">
+        <v>0.02567617562921486</v>
+      </c>
+      <c r="F43">
+        <v>0.01367776066049111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07224024808642204</v>
+        <v>0.07911506991750358</v>
       </c>
       <c r="C44">
-        <v>-0.02639930646554929</v>
+        <v>0.01894448047099485</v>
       </c>
       <c r="D44">
-        <v>-0.08210617166619637</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09626219733124117</v>
+      </c>
+      <c r="E44">
+        <v>0.06103583561995802</v>
+      </c>
+      <c r="F44">
+        <v>-0.1598975812601631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02182795634020753</v>
+        <v>0.02398088667991914</v>
       </c>
       <c r="C46">
-        <v>-0.003891717171329596</v>
+        <v>0.003382996700349979</v>
       </c>
       <c r="D46">
-        <v>-0.005582156805440652</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01299925860110634</v>
+      </c>
+      <c r="E46">
+        <v>0.02665870829913134</v>
+      </c>
+      <c r="F46">
+        <v>0.006578144486927354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05292864374506596</v>
+        <v>0.0531507702393557</v>
       </c>
       <c r="C47">
-        <v>-0.004705597480348036</v>
+        <v>0.003981165011818059</v>
       </c>
       <c r="D47">
-        <v>-0.008432543683318292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01087823854956551</v>
+      </c>
+      <c r="E47">
+        <v>0.02311447616632113</v>
+      </c>
+      <c r="F47">
+        <v>0.03235022054370117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04888631879629786</v>
+        <v>0.05016775321293497</v>
       </c>
       <c r="C48">
-        <v>-0.005198425842340385</v>
+        <v>0.002165042332836055</v>
       </c>
       <c r="D48">
-        <v>-0.04090482596583225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04960561597587806</v>
+      </c>
+      <c r="E48">
+        <v>-0.005555221035257726</v>
+      </c>
+      <c r="F48">
+        <v>-0.00870316865029022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2025831466498036</v>
+        <v>0.2005343683227405</v>
       </c>
       <c r="C49">
-        <v>-0.02190693055078704</v>
+        <v>0.01938664469964018</v>
       </c>
       <c r="D49">
-        <v>0.01635113900372656</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006630253920361531</v>
+      </c>
+      <c r="E49">
+        <v>0.03152535929653236</v>
+      </c>
+      <c r="F49">
+        <v>-0.04266124320436394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04990252173663186</v>
+        <v>0.05166593225625502</v>
       </c>
       <c r="C50">
-        <v>-0.01325105575264174</v>
+        <v>0.01154472418940969</v>
       </c>
       <c r="D50">
-        <v>-0.02108783164811328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0235074118345715</v>
+      </c>
+      <c r="E50">
+        <v>0.0301231620498147</v>
+      </c>
+      <c r="F50">
+        <v>-0.009430913347182684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1562429377604803</v>
+        <v>0.1497717500089933</v>
       </c>
       <c r="C52">
-        <v>-0.02030428896950672</v>
+        <v>0.01846107763790899</v>
       </c>
       <c r="D52">
-        <v>-0.04961775463877381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04208884783080521</v>
+      </c>
+      <c r="E52">
+        <v>0.02202987526322681</v>
+      </c>
+      <c r="F52">
+        <v>-0.04328189731163081</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1733664524984618</v>
+        <v>0.170254172798609</v>
       </c>
       <c r="C53">
-        <v>-0.02011585675829784</v>
+        <v>0.02062871498077082</v>
       </c>
       <c r="D53">
-        <v>-0.01430207237090424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00587824449965261</v>
+      </c>
+      <c r="E53">
+        <v>0.02975378057380317</v>
+      </c>
+      <c r="F53">
+        <v>-0.07336220869874042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01780837862993316</v>
+        <v>0.02055338911488988</v>
       </c>
       <c r="C54">
-        <v>-0.01264184200246313</v>
+        <v>0.01109658054113186</v>
       </c>
       <c r="D54">
-        <v>-0.02722967793670595</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03441797432881214</v>
+      </c>
+      <c r="E54">
+        <v>0.02190937871443517</v>
+      </c>
+      <c r="F54">
+        <v>0.001421708684161574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1158635467920997</v>
+        <v>0.1150985512483176</v>
       </c>
       <c r="C55">
-        <v>-0.01791983728339108</v>
+        <v>0.01814623775993898</v>
       </c>
       <c r="D55">
-        <v>-0.01124311721722857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008174326677157204</v>
+      </c>
+      <c r="E55">
+        <v>0.02482263207272229</v>
+      </c>
+      <c r="F55">
+        <v>-0.04561843955058489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1794631929054924</v>
+        <v>0.176493776908575</v>
       </c>
       <c r="C56">
-        <v>-0.01757397850015663</v>
+        <v>0.01863881375769269</v>
       </c>
       <c r="D56">
-        <v>-0.01017946511926862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002131724780178561</v>
+      </c>
+      <c r="E56">
+        <v>0.03290519280887351</v>
+      </c>
+      <c r="F56">
+        <v>-0.05248978125202899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04869228710613705</v>
+        <v>0.04512763085720699</v>
       </c>
       <c r="C58">
-        <v>-0.006000838148037179</v>
+        <v>-0.0001846560908039591</v>
       </c>
       <c r="D58">
-        <v>-0.05735691700587971</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07327594503800477</v>
+      </c>
+      <c r="E58">
+        <v>0.03409318142698351</v>
+      </c>
+      <c r="F58">
+        <v>0.03619241106499369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1621567859416892</v>
+        <v>0.1678883288444157</v>
       </c>
       <c r="C59">
-        <v>-0.01357052749005157</v>
+        <v>0.0228402618695092</v>
       </c>
       <c r="D59">
-        <v>0.2239596934852573</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184281102081047</v>
+      </c>
+      <c r="E59">
+        <v>-0.0485041584709319</v>
+      </c>
+      <c r="F59">
+        <v>0.03477316122065744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2377401016522958</v>
+        <v>0.2311097060122401</v>
       </c>
       <c r="C60">
-        <v>-0.001732784069355079</v>
+        <v>-0.001375641139308701</v>
       </c>
       <c r="D60">
-        <v>-0.04378079780742133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03997118268349414</v>
+      </c>
+      <c r="E60">
+        <v>0.006892100503224917</v>
+      </c>
+      <c r="F60">
+        <v>0.0002133405327884043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08685903008289417</v>
+        <v>0.0787586646564572</v>
       </c>
       <c r="C61">
-        <v>-0.01815059693539078</v>
+        <v>0.0112948931473356</v>
       </c>
       <c r="D61">
-        <v>-0.09941072564433952</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.117059744770291</v>
+      </c>
+      <c r="E61">
+        <v>0.03794056656433747</v>
+      </c>
+      <c r="F61">
+        <v>-0.01145713537317145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1702461876547318</v>
+        <v>0.1683558167199516</v>
       </c>
       <c r="C62">
-        <v>-0.02142461783211122</v>
+        <v>0.02115008098809668</v>
       </c>
       <c r="D62">
-        <v>-0.006637224669681546</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005081620689435467</v>
+      </c>
+      <c r="E62">
+        <v>0.03260702290613911</v>
+      </c>
+      <c r="F62">
+        <v>-0.03733934970344756</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04324638261446124</v>
+        <v>0.04589970435515722</v>
       </c>
       <c r="C63">
-        <v>-0.005948973486006389</v>
+        <v>0.001790299303458043</v>
       </c>
       <c r="D63">
-        <v>-0.04426663780762521</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05982385717729618</v>
+      </c>
+      <c r="E63">
+        <v>0.0243558301760785</v>
+      </c>
+      <c r="F63">
+        <v>-0.003087890591092728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1125870244579891</v>
+        <v>0.1106458469111869</v>
       </c>
       <c r="C64">
-        <v>-0.0153203263164448</v>
+        <v>0.01172655005342907</v>
       </c>
       <c r="D64">
-        <v>-0.03329102817748204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04361577957173321</v>
+      </c>
+      <c r="E64">
+        <v>0.02260544767330403</v>
+      </c>
+      <c r="F64">
+        <v>-0.02568410596869318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1405651156425435</v>
+        <v>0.1515329547575577</v>
       </c>
       <c r="C65">
-        <v>-0.03377360030406831</v>
+        <v>0.03452208454179587</v>
       </c>
       <c r="D65">
-        <v>0.05210445072298907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04582434444076211</v>
+      </c>
+      <c r="E65">
+        <v>0.003871161454474077</v>
+      </c>
+      <c r="F65">
+        <v>-0.03571491081353224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1380566769397648</v>
+        <v>0.1227017335190286</v>
       </c>
       <c r="C66">
-        <v>-0.02286267867362243</v>
+        <v>0.01395251542475696</v>
       </c>
       <c r="D66">
-        <v>-0.1195585172054564</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1402421727765359</v>
+      </c>
+      <c r="E66">
+        <v>0.06346538099428357</v>
+      </c>
+      <c r="F66">
+        <v>-0.03181086598967333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06278639187378363</v>
+        <v>0.05615708719276244</v>
       </c>
       <c r="C67">
-        <v>-0.005552460441391917</v>
+        <v>0.002869731720023999</v>
       </c>
       <c r="D67">
-        <v>-0.05478324389682466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0563381506696214</v>
+      </c>
+      <c r="E67">
+        <v>0.01687478144559703</v>
+      </c>
+      <c r="F67">
+        <v>0.02994630947991558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1060084425766158</v>
+        <v>0.1170012727558696</v>
       </c>
       <c r="C68">
-        <v>-0.02195742412386792</v>
+        <v>0.03314634114309151</v>
       </c>
       <c r="D68">
-        <v>0.2713580261966236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.261376984931118</v>
+      </c>
+      <c r="E68">
+        <v>-0.0882707410877063</v>
+      </c>
+      <c r="F68">
+        <v>0.001819312648263501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0399707353866969</v>
+        <v>0.0386809842661774</v>
       </c>
       <c r="C69">
-        <v>-0.001902821578630835</v>
+        <v>0.001237566942025247</v>
       </c>
       <c r="D69">
-        <v>-0.007666261971108318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008404538231880299</v>
+      </c>
+      <c r="E69">
+        <v>0.02354268809920896</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005350300209104675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06597825036881119</v>
+        <v>0.06612713642967018</v>
       </c>
       <c r="C70">
-        <v>0.0246514302612215</v>
+        <v>-0.02738451840394454</v>
       </c>
       <c r="D70">
-        <v>0.006871995208129145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02557834248597601</v>
+      </c>
+      <c r="E70">
+        <v>-0.03064570874402106</v>
+      </c>
+      <c r="F70">
+        <v>0.1762448328746584</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1240309413787756</v>
+        <v>0.1363878009336507</v>
       </c>
       <c r="C71">
-        <v>-0.02553109414315127</v>
+        <v>0.03756964854971043</v>
       </c>
       <c r="D71">
-        <v>0.2858533398435212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2719354785112297</v>
+      </c>
+      <c r="E71">
+        <v>-0.09866966812164028</v>
+      </c>
+      <c r="F71">
+        <v>-0.004292124341936907</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1382271986015044</v>
+        <v>0.1436657224974746</v>
       </c>
       <c r="C72">
-        <v>-0.02789968170389194</v>
+        <v>0.02764709615296571</v>
       </c>
       <c r="D72">
-        <v>-0.004704905067734866</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004266096239916853</v>
+      </c>
+      <c r="E72">
+        <v>0.0366433689070401</v>
+      </c>
+      <c r="F72">
+        <v>-0.0302088844840678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2079951791031985</v>
+        <v>0.2045550921614573</v>
       </c>
       <c r="C73">
-        <v>-0.01737054645244276</v>
+        <v>0.01352125425333699</v>
       </c>
       <c r="D73">
-        <v>-0.009942141867364331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01718667635943307</v>
+      </c>
+      <c r="E73">
+        <v>0.0649719094100626</v>
+      </c>
+      <c r="F73">
+        <v>-0.04014712439549237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09333303174057116</v>
+        <v>0.09509630153670454</v>
       </c>
       <c r="C74">
-        <v>-0.01401205163714765</v>
+        <v>0.01392041214464027</v>
       </c>
       <c r="D74">
-        <v>-0.02091932492304424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01640046915065265</v>
+      </c>
+      <c r="E74">
+        <v>0.04365719645234972</v>
+      </c>
+      <c r="F74">
+        <v>-0.0545146267405678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1335840982468502</v>
+        <v>0.1267234984994449</v>
       </c>
       <c r="C75">
-        <v>-0.03031153049452557</v>
+        <v>0.02887673938493599</v>
       </c>
       <c r="D75">
-        <v>-0.02992698597246841</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02923280637909824</v>
+      </c>
+      <c r="E75">
+        <v>0.05708487664132517</v>
+      </c>
+      <c r="F75">
+        <v>-0.02233038156063541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08344716919207239</v>
+        <v>0.09020342820668364</v>
       </c>
       <c r="C77">
-        <v>-0.01567315249202324</v>
+        <v>0.008292900578142502</v>
       </c>
       <c r="D77">
-        <v>-0.09600667924994485</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1141037366177267</v>
+      </c>
+      <c r="E77">
+        <v>0.04407165291890974</v>
+      </c>
+      <c r="F77">
+        <v>-0.03318263747076982</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1031347362432628</v>
+        <v>0.1021827800902048</v>
       </c>
       <c r="C78">
-        <v>-0.04590179129647679</v>
+        <v>0.03932175083865719</v>
       </c>
       <c r="D78">
-        <v>-0.1060849468529398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1148128976251676</v>
+      </c>
+      <c r="E78">
+        <v>0.07824366632671241</v>
+      </c>
+      <c r="F78">
+        <v>-0.05534130287772458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1640649149467396</v>
+        <v>0.1626950593271957</v>
       </c>
       <c r="C79">
-        <v>-0.02458644369093987</v>
+        <v>0.02367597388510782</v>
       </c>
       <c r="D79">
-        <v>-0.01326814588960286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01292462963044565</v>
+      </c>
+      <c r="E79">
+        <v>0.04421439717198541</v>
+      </c>
+      <c r="F79">
+        <v>-0.01116246892161044</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08517842204857635</v>
+        <v>0.08233313877171798</v>
       </c>
       <c r="C80">
-        <v>-0.00232901580696197</v>
+        <v>-0.000355923794091576</v>
       </c>
       <c r="D80">
-        <v>-0.04638546525503687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05514172658229807</v>
+      </c>
+      <c r="E80">
+        <v>0.03483403320685285</v>
+      </c>
+      <c r="F80">
+        <v>0.01980127767448645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1203443612196089</v>
+        <v>0.117826817298116</v>
       </c>
       <c r="C81">
-        <v>-0.03236848392188949</v>
+        <v>0.03248022180298172</v>
       </c>
       <c r="D81">
-        <v>-0.0236942524260132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01422693298649951</v>
+      </c>
+      <c r="E81">
+        <v>0.05530684846613142</v>
+      </c>
+      <c r="F81">
+        <v>-0.01844889837573067</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1654866920133432</v>
+        <v>0.1653971880060062</v>
       </c>
       <c r="C82">
-        <v>-0.02539260782723568</v>
+        <v>0.0259986586772338</v>
       </c>
       <c r="D82">
-        <v>-0.01517943061887067</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002980092715602965</v>
+      </c>
+      <c r="E82">
+        <v>0.02626840077730849</v>
+      </c>
+      <c r="F82">
+        <v>-0.08093776649945519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06543697498283599</v>
+        <v>0.05812628154782971</v>
       </c>
       <c r="C83">
-        <v>-0.006273497507165314</v>
+        <v>0.003054310438558347</v>
       </c>
       <c r="D83">
-        <v>-0.03734336843768676</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04986190801716303</v>
+      </c>
+      <c r="E83">
+        <v>0.002998347880754018</v>
+      </c>
+      <c r="F83">
+        <v>0.02979964083345004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06367063574349376</v>
+        <v>0.0576880543107505</v>
       </c>
       <c r="C84">
-        <v>-0.01472032179002273</v>
+        <v>0.01095393215988542</v>
       </c>
       <c r="D84">
-        <v>-0.06441396229462762</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07237201794395182</v>
+      </c>
+      <c r="E84">
+        <v>0.01433597288113166</v>
+      </c>
+      <c r="F84">
+        <v>-0.01308185725862222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1374952866021271</v>
+        <v>0.1344295243481974</v>
       </c>
       <c r="C85">
-        <v>-0.02886164520390522</v>
+        <v>0.02883087955085592</v>
       </c>
       <c r="D85">
-        <v>-0.01685831140871416</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009268894561140219</v>
+      </c>
+      <c r="E85">
+        <v>0.0358074692025414</v>
+      </c>
+      <c r="F85">
+        <v>-0.04588838311592253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1001418118779068</v>
+        <v>0.0922250357058982</v>
       </c>
       <c r="C86">
-        <v>0.003289572321517198</v>
+        <v>-0.006265447936574063</v>
       </c>
       <c r="D86">
-        <v>-0.002279065265868845</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04922728234251226</v>
+      </c>
+      <c r="E86">
+        <v>0.235323735069718</v>
+      </c>
+      <c r="F86">
+        <v>0.9049397104570173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09954421654988775</v>
+        <v>0.09305700630281401</v>
       </c>
       <c r="C87">
-        <v>-0.02853069167736258</v>
+        <v>0.01937502086530929</v>
       </c>
       <c r="D87">
-        <v>-0.06794802684020677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09542795256532244</v>
+      </c>
+      <c r="E87">
+        <v>-0.05221200519433104</v>
+      </c>
+      <c r="F87">
+        <v>-0.04843302452980429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06017407627392615</v>
+        <v>0.0599866925922324</v>
       </c>
       <c r="C88">
-        <v>-0.005245447260609606</v>
+        <v>0.002367530119676325</v>
       </c>
       <c r="D88">
-        <v>-0.05419934509238278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04943965931416755</v>
+      </c>
+      <c r="E88">
+        <v>0.0238871513834042</v>
+      </c>
+      <c r="F88">
+        <v>-0.01538236475479804</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1172739662245338</v>
+        <v>0.1281227149299554</v>
       </c>
       <c r="C89">
-        <v>-0.002949099362243333</v>
+        <v>0.01275124475706765</v>
       </c>
       <c r="D89">
-        <v>0.2584638742371421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2449162099311197</v>
+      </c>
+      <c r="E89">
+        <v>-0.09171014502491107</v>
+      </c>
+      <c r="F89">
+        <v>0.01094962075624135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1355146240262927</v>
+        <v>0.1513830923972684</v>
       </c>
       <c r="C90">
-        <v>-0.02225906863034115</v>
+        <v>0.03422724741766208</v>
       </c>
       <c r="D90">
-        <v>0.2733723551463048</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2687835407670893</v>
+      </c>
+      <c r="E90">
+        <v>-0.1141560957839933</v>
+      </c>
+      <c r="F90">
+        <v>0.0115842696330334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1201618302706392</v>
+        <v>0.1211153406430449</v>
       </c>
       <c r="C91">
-        <v>-0.01964506486089274</v>
+        <v>0.02049476984879654</v>
       </c>
       <c r="D91">
-        <v>0.006518303891183425</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01622700943245754</v>
+      </c>
+      <c r="E91">
+        <v>0.05478197803124295</v>
+      </c>
+      <c r="F91">
+        <v>0.001952332642405064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1372929001145069</v>
+        <v>0.1477598175341211</v>
       </c>
       <c r="C92">
-        <v>-0.0123396834493589</v>
+        <v>0.02474815909992708</v>
       </c>
       <c r="D92">
-        <v>0.3064904024829813</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2895655840607066</v>
+      </c>
+      <c r="E92">
+        <v>-0.1025983523721519</v>
+      </c>
+      <c r="F92">
+        <v>0.01932811749616514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1385119838016725</v>
+        <v>0.152302265864633</v>
       </c>
       <c r="C93">
-        <v>-0.01785058267600535</v>
+        <v>0.02909626847397537</v>
       </c>
       <c r="D93">
-        <v>0.2697126444652376</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2649226925003343</v>
+      </c>
+      <c r="E93">
+        <v>-0.07616395382487567</v>
+      </c>
+      <c r="F93">
+        <v>0.001266345837178492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1343767932146611</v>
+        <v>0.1274634704584321</v>
       </c>
       <c r="C94">
-        <v>-0.0273374341497759</v>
+        <v>0.02525478148970373</v>
       </c>
       <c r="D94">
-        <v>-0.04329553621180826</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04087447974249291</v>
+      </c>
+      <c r="E94">
+        <v>0.05695111682735277</v>
+      </c>
+      <c r="F94">
+        <v>-0.03506530753966074</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1251626221056281</v>
+        <v>0.1261231221227487</v>
       </c>
       <c r="C95">
-        <v>-0.01014018706572338</v>
+        <v>0.003165891672650549</v>
       </c>
       <c r="D95">
-        <v>-0.07934955384864489</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09804554793985969</v>
+      </c>
+      <c r="E95">
+        <v>0.05282647197893808</v>
+      </c>
+      <c r="F95">
+        <v>0.002831991577662935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1201706557690109</v>
+        <v>0.112436820552474</v>
       </c>
       <c r="C96">
-        <v>0.9869777009233393</v>
+        <v>-0.9868184868339852</v>
       </c>
       <c r="D96">
-        <v>0.01052117110723808</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05067602362960921</v>
+      </c>
+      <c r="E96">
+        <v>0.05206395039802215</v>
+      </c>
+      <c r="F96">
+        <v>-0.04246305362920021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1935942902176523</v>
+        <v>0.194174506615973</v>
       </c>
       <c r="C97">
-        <v>0.005779522240650392</v>
+        <v>-0.005822659557751613</v>
       </c>
       <c r="D97">
-        <v>0.01305715625019072</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02057256528463875</v>
+      </c>
+      <c r="E97">
+        <v>0.02149960164476467</v>
+      </c>
+      <c r="F97">
+        <v>0.09301756633045823</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1999549453181127</v>
+        <v>0.2073569915550831</v>
       </c>
       <c r="C98">
-        <v>-0.01193149808175026</v>
+        <v>0.007543902427995087</v>
       </c>
       <c r="D98">
-        <v>-0.01185701313275589</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01503992072698437</v>
+      </c>
+      <c r="E98">
+        <v>-0.07373076154990159</v>
+      </c>
+      <c r="F98">
+        <v>0.08945504535394741</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05594282807732636</v>
+        <v>0.05532692982088976</v>
       </c>
       <c r="C99">
-        <v>0.001867362190094903</v>
+        <v>-0.00425260090629675</v>
       </c>
       <c r="D99">
-        <v>-0.02413745524177721</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03832039994093605</v>
+      </c>
+      <c r="E99">
+        <v>0.02155724166928686</v>
+      </c>
+      <c r="F99">
+        <v>-0.003467603498058119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1415242192373394</v>
+        <v>0.1281816284018494</v>
       </c>
       <c r="C100">
-        <v>0.03743587706409785</v>
+        <v>-0.0521205493312883</v>
       </c>
       <c r="D100">
-        <v>-0.4147221056651472</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3519332921745293</v>
+      </c>
+      <c r="E100">
+        <v>-0.8833994376807283</v>
+      </c>
+      <c r="F100">
+        <v>0.1628820708865586</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02554556225325788</v>
+        <v>0.02851213780267392</v>
       </c>
       <c r="C101">
-        <v>-0.009701584023333988</v>
+        <v>0.008795059640545663</v>
       </c>
       <c r="D101">
-        <v>-0.02329182251744959</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03048130405572776</v>
+      </c>
+      <c r="E101">
+        <v>0.01255743158639751</v>
+      </c>
+      <c r="F101">
+        <v>0.01506533663066627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
